--- a/basic_core_java/src/fileHandeling/Test_data.xlsx
+++ b/basic_core_java/src/fileHandeling/Test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView windowHeight="6435" windowWidth="14835" xWindow="0" yWindow="2520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t>Anand</t>
   </si>
@@ -351,16 +352,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F15:L19"/>
+  <dimension ref="F11:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="15">
-      <c r="K15" t="s">
+    <row r="11">
+      <c r="F11" t="s">
         <v>0</v>
       </c>
     </row>
